--- a/OpaProject/excel/testEdit.xlsx
+++ b/OpaProject/excel/testEdit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\source\repos\OpaProject\OpaProject\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A7B90E-6E12-4553-945D-F80756CF4ACA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6B405A-2AF5-4E44-80A9-9EA217DC2DCA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>email</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,23 +63,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sdh190323@sdh.hs.kr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>임준영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>01012345678</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sdh190328@sdh.hs.kr</t>
+  </si>
+  <si>
+    <t>박숭철</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -466,7 +461,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -511,13 +506,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -529,14 +524,12 @@
         <v>2</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -590,11 +583,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{4DCA650F-DDF3-408E-A3BC-9502479FE457}"/>
-    <hyperlink ref="I2" r:id="rId2" xr:uid="{DE38C5D0-EC05-47BC-87AB-D83DA5C33F53}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/OpaProject/excel/testEdit.xlsx
+++ b/OpaProject/excel/testEdit.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\source\repos\OpaProject\OpaProject\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\308\OP_Admin\OpaProject\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6B405A-2AF5-4E44-80A9-9EA217DC2DCA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,7 +80,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -457,11 +456,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -527,7 +526,7 @@
         <v>10</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="1"/>
     </row>
